--- a/data/trans_dic/P23_DUKE_AF_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_DUKE_AF_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe apoyo social afectivo bajo</t>
+          <t>Población que recibe apoyo social afectivo bajo (tasa de respuesta: 96,17%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,63%</t>
+          <t>71,76%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>78,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>78,57%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>81,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>57,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,28%</t>
+          <t>59,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>56,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>62,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>64,48%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>68,07%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>67,26%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>72,29%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,9; 59,04</t>
+          <t>53,57; 88,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,56; 50,2</t>
+          <t>59,24; 92,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,42; 51,92</t>
+          <t>59,9; 93,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,53; 22,63</t>
+          <t>65,13; 94,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,37; 28,41</t>
+          <t>42,96; 73,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,38; 59,4</t>
+          <t>44,51; 74,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,51; 37,17</t>
+          <t>40,95; 72,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,65; 34,85</t>
+          <t>43,83; 77,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,25; 49,15</t>
+          <t>52,57; 78,28</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>55,88; 80,39</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>55,49; 80,98</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>61,31; 85,94</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>65,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>65,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>66,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>74,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>72,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>75,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>66,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>62,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>69,39%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>70,62%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>66,52%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>68,2%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,28; 23,52</t>
+          <t>51,44; 73,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,82; 26,67</t>
+          <t>55,55; 73,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,59; 28,51</t>
+          <t>56,8; 75,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,56; 31,78</t>
+          <t>65,57; 82,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,11; 28,24</t>
+          <t>65,2; 79,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,7; 21,57</t>
+          <t>68,78; 82,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,66; 25,95</t>
+          <t>59,48; 73,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,83; 25,74</t>
+          <t>54,58; 70,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,27; 23,53</t>
+          <t>61,89; 75,04</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>64,82; 76,28</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>60,32; 72,58</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>61,95; 73,69</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>74,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>72,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>68,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>69,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>70,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>70,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>77,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>76,07%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>72,05%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>71,27%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>73,07%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>73,17%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,13; 18,03</t>
+          <t>66,14; 82,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,36; 24,41</t>
+          <t>63,19; 80,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,75; 21,66</t>
+          <t>59,69; 77,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,86; 19,09</t>
+          <t>60,36; 78,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,92; 20,55</t>
+          <t>62,04; 76,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,77; 26,47</t>
+          <t>62,65; 77,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,07; 17,02</t>
+          <t>70,19; 83,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,09; 19,96</t>
+          <t>69,01; 81,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,44; 22,26</t>
+          <t>66,48; 77,46</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>65,56; 76,33</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>67,01; 78,18</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>67,63; 78,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,9; 24,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,32; 24,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,26; 25,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,27; 23,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,86; 23,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,6; 30,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,3; 22,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,22; 22,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,28; 24,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>69,9%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>69,53%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>68,9%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>73,96%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>69,72%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>71,45%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>69,33%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>67,57%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>69,81%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>70,55%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>69,12%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>70,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>62,01; 75,25</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>63,18; 75,35</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>62,48; 75,45</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>67,17; 79,95</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>64,71; 74,38</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>66,51; 76,0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>64,15; 73,9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>62,08; 72,6</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>65,23; 73,41</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>66,88; 74,14</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>65,36; 73,03</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>66,75; 74,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe apoyo social afectivo bajo (tasa de respuesta: 96,17%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>83733</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>66148</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>79527</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>132534</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>67438</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>59781</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>60418</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>102280</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>151171</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>125929</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>139944</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>234814</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>62510; 103615</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>49959; 77764</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>60628; 94669</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>105750; 153880</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>50585; 86232</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>44806; 74746</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>43760; 77149</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>71217; 125815</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>123247; 183518</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>103370; 148730</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>115455; 168494</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>199155; 279172</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>266969</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>221901</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>240600</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>345298</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>310287</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>269695</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>236153</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>294006</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>577256</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>491596</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>476753</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>639304</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>208857; 298329</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>189285; 251938</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>205224; 272723</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>304895; 381864</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>277655; 338933</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>244414; 292695</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>211391; 260569</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>257861; 331190</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>514879; 624203</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>451268; 531039</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>432340; 520165</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>580749; 690800</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>229013</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>185472</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>176271</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>239950</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>282861</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>225659</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>240154</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>292820</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>511875</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>411131</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>416425</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>532770</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>202798; 251598</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>161712; 206149</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>153969; 200133</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>207117; 268078</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>250554; 310444</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>201105; 247748</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>218915; 259144</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>265632; 315537</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>472314; 550366</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>378192; 440350</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>381895; 445508</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>492403; 569220</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>466.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>456.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>458.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>468.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>579715</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>473521</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>496398</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>717781</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>660586</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>555135</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>536725</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>689107</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1240301</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1028656</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1033123</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1406889</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>514269; 624056</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>430239; 513122</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>450121; 543628</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>651866; 775891</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>613096; 704726</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>516795; 590497</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>496634; 572162</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>633128; 740362</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1159085; 1304317</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>975069; 1080964</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>976850; 1091498</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1328491; 1483764</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
